--- a/versionHistory.xlsx
+++ b/versionHistory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>2017.04.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -443,7 +451,24 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/versionHistory.xlsx
+++ b/versionHistory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,7 +73,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Version1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.04.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.04.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章 个别图  布局 布线 原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -461,15 +489,38 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
